--- a/biology/Zoologie/Charaxes_distanti/Charaxes_distanti.xlsx
+++ b/biology/Zoologie/Charaxes_distanti/Charaxes_distanti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charases distanti est une espèce de papillons de la famille des Nymphalidae, de la sous-famille des Charaxinae et du genre Charaxes.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Charaxes distanti a été décrite par Eduard Honrath (d) en 1889[1], avec pour la localité type Perak Bornéo.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Charaxes distanti a été décrite par Eduard Honrath (d) en 1889, avec pour la localité type Perak Bornéo.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Charaxes distanti distanti ; présent en Thaïlande et en Malaisie[2].
-Charaxes distanti phlegmone (Fruhstorfer, 1914) ; présent à Sumatra[3].
-Charaxes distanti thespius (Fruhstorfer, 1914) ; présent à Bornéo[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Charaxes distanti distanti ; présent en Thaïlande et en Malaisie.
+Charaxes distanti phlegmone (Fruhstorfer, 1914) ; présent à Sumatra.
+Charaxes distanti thespius (Fruhstorfer, 1914) ; présent à Bornéo.</t>
         </is>
       </c>
     </row>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Charaxes distanti est un grand papillon au dessus jaune d'or avec aux ailes antérieures une bande marginale marron et aux ailes postérieures, une ligne submarginale de taches marron. Le dessous est ocre doré.
 </t>
@@ -602,12 +620,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent  dans le sud de la Birmanie, en Thaïlande, en Malaisie et à Bornéo et Sumatra.
+</t>
         </is>
       </c>
     </row>
@@ -637,10 +658,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est présent  dans le sud de la Birmanie, en Thaïlande, en Malaisie et à Bornéo et Sumatra[4].
-Biotope
-Protection
-Pas de protection : il est en vente libre sur internet.
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de protection : il est en vente libre sur internet.
 </t>
         </is>
       </c>
